--- a/forwardprimer-v3_34.xlsx
+++ b/forwardprimer-v3_34.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_34" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3169-GCATGGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGGTACATCGTCGGCAGCGTC</t>
+    <t>F3169-TCTGAAGTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3170-CGTTCGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCGATCTTCGTCGGCAGCGTC</t>
+    <t>F3170-ATCCATCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCCATCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3171-TCGACGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGACGTGATTCGTCGGCAGCGTC</t>
+    <t>F3171-AGTCATCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCATCGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3172-TGTCAACTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAACTCCTCGTCGGCAGCGTC</t>
+    <t>F3172-CAGAGAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGAACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3173-TCAGAGAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGAACCTCGTCGGCAGCGTC</t>
+    <t>F3173-ACTCACAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCACAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3174-TGGACTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGACTCTTGTCGTCGGCAGCGTC</t>
+    <t>F3174-CTGGACTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGGACTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3175-AGTGTCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTCTCTTTCGTCGGCAGCGTC</t>
+    <t>F3175-CTCAACCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3176-ATCCTTCTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTTCTCGTCGTCGGCAGCGTC</t>
+    <t>F3176-TGTAGTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3177-TTCTGAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAGAGTTCGTCGGCAGCGTC</t>
+    <t>F3177-GTACACATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3178-TGTTCTGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGCTCTCGTCGGCAGCGTC</t>
+    <t>F3178-AGGATCGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3179-AGAAGAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGAGGTCTCGTCGGCAGCGTC</t>
+    <t>F3179-TCACTCGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3180-TGCTCAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCAGAACTCGTCGGCAGCGTC</t>
+    <t>F3180-TCCACTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3181-ACGTCCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCCTTCATCGTCGGCAGCGTC</t>
+    <t>F3181-TCCAACACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3182-AAGATCAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATCAGACTCGTCGGCAGCGTC</t>
+    <t>F3182-CGACCTTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACCTTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3183-TAGTGTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTCAGATCGTCGGCAGCGTC</t>
+    <t>F3183-AGTCTGACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTGACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3184-CCTTGACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGACTGTTCGTCGGCAGCGTC</t>
+    <t>F3184-TGCTCCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCCATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3185-ACGTTCTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCTAGTTCGTCGGCAGCGTC</t>
+    <t>F3185-GAGTCACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3186-GTCAGATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGATCCTTCGTCGGCAGCGTC</t>
+    <t>F3186-TCTCTGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3187-ATCGAGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGTGTCTCGTCGGCAGCGTC</t>
+    <t>F3187-AGTGTTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3188-TGACAGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAGAGGTTCGTCGGCAGCGTC</t>
+    <t>F3188-TCTCTCCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3189-CACTTGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTTGGATGTCGTCGGCAGCGTC</t>
+    <t>F3189-ACTGCAACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCAACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3190-ATCCATCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCATCCATTCGTCGGCAGCGTC</t>
+    <t>F3190-GTAGCTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3191-TGGTACGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTACGAGTTCGTCGGCAGCGTC</t>
+    <t>F3191-ACAACAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACAAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3192-CTCTTGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTGCTCTTCGTCGGCAGCGTC</t>
+    <t>F3192-CTCTAGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTAGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3193-GTAGACTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACTGCATCGTCGGCAGCGTC</t>
+    <t>F3193-AAGCACCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3194-ACACTGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGGTTCTCGTCGGCAGCGTC</t>
+    <t>F3194-CATGTGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3195-GAACCTCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTCTCATCGTCGGCAGCGTC</t>
+    <t>F3195-TCGATGGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3196-TTGGACAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGACAACTTCGTCGGCAGCGTC</t>
+    <t>F3196-AACGTGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3197-GGATGATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGATCACTCGTCGGCAGCGTC</t>
+    <t>F3197-GTAGTGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3198-AACAGCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGCATCGTCGTCGGCAGCGTC</t>
+    <t>F3198-AGTGCATCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGCATCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3199-GGTCGTACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCGTACAATCGTCGGCAGCGTC</t>
+    <t>F3199-GTGTTGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTGGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3200-ACCTACTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACTGTATCGTCGGCAGCGTC</t>
+    <t>F3200-ACCTAGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3201-TCATGTTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGTTCTCTCGTCGGCAGCGTC</t>
+    <t>F3201-TCGTGGACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGGACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3202-ACCTTCGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTTCGTACTCGTCGGCAGCGTC</t>
+    <t>F3202-CAACTCACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3203-AGAACCTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACCTGGATCGTCGGCAGCGTC</t>
+    <t>F3203-TACCAACTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCAACTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3204-GGACTACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTACTCATCGTCGGCAGCGTC</t>
+    <t>F3204-GTAGCTCGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCTCGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3205-TAGATCCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCCAACTCGTCGGCAGCGTC</t>
+    <t>F3205-GAGACGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3206-GAACACTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTTGCTCGTCGGCAGCGTC</t>
+    <t>F3206-CTCATCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3207-GTCACTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTCTAGTCGTCGGCAGCGTC</t>
+    <t>F3207-AACTCAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3208-ATCTTCTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTTCTCGTTCGTCGGCAGCGTC</t>
+    <t>F3208-TACACCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3209-GCTCTGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTGTCTATCGTCGGCAGCGTC</t>
+    <t>F3209-ACCACCTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACCTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3210-CGTTCTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCTTGGTTCGTCGGCAGCGTC</t>
+    <t>F3210-CAACTGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3211-AGAGCATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCATCTCTCGTCGGCAGCGTC</t>
+    <t>F3211-TGACTGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACTGGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3212-TCGAAGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAAGTACTTCGTCGGCAGCGTC</t>
+    <t>F3212-CGTAGACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3213-AGAAGCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTCTTTCGTCGGCAGCGTC</t>
+    <t>F3213-AACCTGGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3214-AGACTTCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTCTGCTCGTCGGCAGCGTC</t>
+    <t>F3214-GTTCTCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3215-AAGTAGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGTCAGTCGTCGGCAGCGTC</t>
+    <t>F3215-GAACTCGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTCGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3216-AGTACACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACACACATCGTCGGCAGCGTC</t>
+    <t>F3216-CAAGACTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3217-TACGTCAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCAGAGTCGTCGGCAGCGTC</t>
+    <t>F3217-CCTAGCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGCAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3218-GTCAACTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACTCATTCGTCGGCAGCGTC</t>
+    <t>F3218-CCAGTCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAGTCTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3219-AGAGAAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAAGGATTCGTCGGCAGCGTC</t>
+    <t>F3219-TCGTAGCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3220-TCACCTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTGACTTCGTCGGCAGCGTC</t>
+    <t>F3220-AGTAGATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3221-GTACCAACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCAACTTTCGTCGGCAGCGTC</t>
+    <t>F3221-TGACACACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACACACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3222-GTGTACTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACTGCTTCGTCGGCAGCGTC</t>
+    <t>F3222-ACACTGCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3223-TTCGTGACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTGACACTCGTCGGCAGCGTC</t>
+    <t>F3223-CACGAAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGAAGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3224-CACCTTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACCTTCTACTCGTCGGCAGCGTC</t>
+    <t>F3224-ACAGAGAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3225-GACTGTAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTAGTGTCGTCGGCAGCGTC</t>
+    <t>F3225-ACCACAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACAGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3226-AACACACTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACACTCCTCGTCGGCAGCGTC</t>
+    <t>F3226-AACATGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3227-GGAGATGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGATGCTATCGTCGGCAGCGTC</t>
+    <t>F3227-AACTGTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3228-GTACAGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGCAGATCGTCGGCAGCGTC</t>
+    <t>F3228-GTAGTTCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTTCCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3229-GTTCAGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGTCTCTCGTCGGCAGCGTC</t>
+    <t>F3229-GAGTACCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3230-TGAAGAACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGAACTGTCGTCGGCAGCGTC</t>
+    <t>F3230-TCAAGCAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3231-ATCGTCAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCAAGGTCGTCGGCAGCGTC</t>
+    <t>F3231-GGTGAAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3232-TCGTGGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGGACATTCGTCGGCAGCGTC</t>
+    <t>F3232-ATCTCGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTCGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3233-TAGGTACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTACGACTCGTCGGCAGCGTC</t>
+    <t>F3233-CTTCAACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3234-GGATCTAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCTAGACTCGTCGGCAGCGTC</t>
+    <t>F3234-GTGGTACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3235-TCACAGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAGTTGCTCGTCGGCAGCGTC</t>
+    <t>F3235-ACTCTAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3236-GAACGAACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGAACTCTCGTCGGCAGCGTC</t>
+    <t>F3236-TCTACGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACGTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3237-GTTCTGGTGA</t>
+    <t>F3237-ACTCCAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCCAAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3238-GAGTGCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGCATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F3239-CAGTCTGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F3240-TCAACTTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F3241-CTCACTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACTCGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F3242-GCTACACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTACACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F3243-TAGCTAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTAGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F3244-ATCGACCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGACCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F3245-AACAACAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F3246-TTGTCGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCGTACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F3247-TCTCCTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCTCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F3248-TACGTTGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F3249-GATGACAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGACAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F3250-TGACGAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F3251-TGTCGAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGAGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F3252-CTACTCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F3253-ACACAACTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAACTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F3254-AGTGAAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAAGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F3255-ATGGACACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGACACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F3256-AAGTCGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCGTACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F3257-ACAAGGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>F3258-GTTCTGGTGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGTTCTGGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3238-TGACAACACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAACACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F3239-GAAGTCCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCCTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F3240-ACAGGATCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGATCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F3241-TGCTACAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACAACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F3242-AACACAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACAAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F3243-TACAGTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGTCCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F3244-ACCACTACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACTACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F3245-AAGTGTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F3246-GTAGAGAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F3247-GTTCTCAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F3248-TGCTAGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F3249-AGTCAGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F3250-GATGCAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCAGGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F3251-GATGGAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F3252-ACTCTGAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTGAAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F3253-TTGAACCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F3254-GTACCTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACCTCCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F3255-CGATGACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F3256-GTCGTAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTAGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F3257-TCTCTGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>F3258-TTGACATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACATGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3259-GTCGAGTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGAGTGATTCGTCGGCAGCGTC</t>
+    <t>F3259-GCATCACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3260-TGAACACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACACGTTTCGTCGGCAGCGTC</t>
+    <t>F3260-CTGATCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGATCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3261-TCTGCTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTGTAGTCGTCGGCAGCGTC</t>
+    <t>F3261-TCAAGCTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3262-TACGAGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGTGAGTCGTCGGCAGCGTC</t>
+    <t>F3262-TTGGTCTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTCTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3263-ACAACGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACGAAGGTCGTCGGCAGCGTC</t>
+    <t>F3263-TAGATCTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3264-CTCAAGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGTCGATCGTCGGCAGCGTC</t>
+    <t>F3264-TACATGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACATGAAGGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
